--- a/script/测试用例 热 手算.xlsx
+++ b/script/测试用例 热 手算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10480" activeTab="1"/>
+    <workbookView windowWidth="29868" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="135">
   <si>
     <t>模式</t>
   </si>
@@ -417,7 +417,22 @@
     <t>调度次数</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>生成详单个数</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
@@ -1660,14 +1675,14 @@
       <selection activeCell="B20" sqref="B20:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.4454545454545" customWidth="1"/>
-    <col min="3" max="3" width="10.3818181818182" customWidth="1"/>
-    <col min="4" max="4" width="13.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:20">
+    <row r="1" ht="15.6" spans="1:20">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1693,7 +1708,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" ht="16.5" spans="1:20">
+    <row r="2" ht="15.6" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1719,7 +1734,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" ht="16.5" spans="1:20">
+    <row r="3" ht="15.6" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1760,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" ht="16.5" spans="1:20">
+    <row r="4" ht="15.6" spans="1:20">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -1771,7 +1786,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" ht="16.5" spans="1:20">
+    <row r="5" ht="15.6" spans="1:20">
       <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1814,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" ht="16.5" spans="1:20">
+    <row r="6" ht="15.6" spans="1:20">
       <c r="A6" s="37"/>
       <c r="B6" s="29" t="s">
         <v>10</v>
@@ -1827,7 +1842,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" ht="16.5" spans="1:20">
+    <row r="7" ht="15.6" spans="1:20">
       <c r="A7" s="38"/>
       <c r="B7" s="29" t="s">
         <v>13</v>
@@ -1853,7 +1868,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" ht="16.5" spans="1:20">
+    <row r="8" ht="15.6" spans="1:20">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1877,7 +1892,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" ht="16.5" spans="1:20">
+    <row r="9" ht="15.6" spans="1:20">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
@@ -1905,7 +1920,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" ht="16.5" spans="1:20">
+    <row r="10" ht="15.6" spans="1:20">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1933,7 +1948,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" ht="16.5" spans="1:20">
+    <row r="11" ht="15.6" spans="1:20">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -1961,7 +1976,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" ht="16.5" spans="1:20">
+    <row r="12" ht="15.6" spans="1:20">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -1989,7 +2004,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" ht="16.5" spans="1:20">
+    <row r="13" ht="15.6" spans="1:20">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>24</v>
@@ -2017,7 +2032,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" ht="16.5" spans="1:21">
+    <row r="14" ht="15.6" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="39"/>
@@ -2040,7 +2055,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" ht="16.5" spans="1:21">
+    <row r="15" ht="15.6" spans="1:21">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -2067,7 +2082,7 @@
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
     </row>
-    <row r="16" ht="16.5" spans="1:21">
+    <row r="16" ht="15.6" spans="1:21">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -2094,7 +2109,7 @@
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
     </row>
-    <row r="17" ht="16.5" spans="1:21">
+    <row r="17" ht="15.6" spans="1:21">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -2121,7 +2136,7 @@
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" ht="16.5" spans="1:21">
+    <row r="18" ht="15.6" spans="1:21">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -2175,7 +2190,7 @@
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
     </row>
-    <row r="20" ht="16.5" spans="1:17">
+    <row r="20" ht="15.6" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>35</v>
       </c>
@@ -2198,7 +2213,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="49"/>
     </row>
-    <row r="21" ht="16.5" spans="1:17">
+    <row r="21" ht="15.6" spans="1:17">
       <c r="A21" s="41" t="s">
         <v>37</v>
       </c>
@@ -2221,7 +2236,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" ht="16.5" spans="1:17">
+    <row r="22" ht="15.6" spans="1:17">
       <c r="A22" s="41" t="s">
         <v>39</v>
       </c>
@@ -2244,7 +2259,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" ht="16.5" spans="1:17">
+    <row r="23" ht="15.6" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>41</v>
       </c>
@@ -2267,7 +2282,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="49"/>
     </row>
-    <row r="24" ht="16.5" spans="1:17">
+    <row r="24" ht="15.6" spans="1:17">
       <c r="A24" s="41" t="s">
         <v>43</v>
       </c>
@@ -2290,7 +2305,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="49"/>
     </row>
-    <row r="25" ht="16.5" spans="1:17">
+    <row r="25" ht="15.6" spans="1:17">
       <c r="A25" s="43" t="s">
         <v>45</v>
       </c>
@@ -2491,31 +2506,31 @@
   <sheetPr/>
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y18" sqref="Y18:Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.8818181818182" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.8796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.38181818181818" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.37962962962963" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.75" style="2" customWidth="1"/>
     <col min="7" max="9" width="5.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="11" max="13" width="5.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="15" max="17" width="5.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="19" max="21" width="5.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="23" max="25" width="5.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.38181818181818" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.37962962962963" style="2" customWidth="1"/>
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2574,7 +2589,7 @@
       </c>
       <c r="AF1" s="30"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="33" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="32.4" spans="1:26">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2642,7 +2657,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -2683,7 +2698,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2731,7 +2746,7 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="32"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -2791,7 +2806,7 @@
       <c r="AE5" s="32"/>
       <c r="AF5" s="32"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -2859,7 +2874,7 @@
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -2947,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -3033,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="9" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -3117,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="10" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -3199,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="11" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -3283,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="12" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -3365,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -3451,7 +3466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -3533,7 +3548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -3617,7 +3632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -3701,7 +3716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -3783,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="18" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -3867,7 +3882,7 @@
       </c>
       <c r="AF18" s="32"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="19" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -3943,7 +3958,7 @@
       </c>
       <c r="AF19" s="32"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="20" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -4019,7 +4034,7 @@
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="21" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -4091,7 +4106,7 @@
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="22" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -4170,7 +4185,7 @@
       </c>
       <c r="AF22" s="32"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="23" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -4245,7 +4260,7 @@
       </c>
       <c r="AF23" s="32"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="24" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -4331,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:32">
+    <row r="25" s="1" customFormat="1" ht="15.6" spans="1:32">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -4411,7 +4426,7 @@
       </c>
       <c r="AF25" s="32"/>
     </row>
-    <row r="26" ht="16.5" spans="1:32">
+    <row r="26" ht="15.6" spans="1:32">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -4489,7 +4504,7 @@
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
     </row>
-    <row r="27" ht="16.5" spans="1:32">
+    <row r="27" ht="15.6" spans="1:32">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -4569,7 +4584,7 @@
       </c>
       <c r="AF27" s="32"/>
     </row>
-    <row r="28" ht="16.5" spans="1:32">
+    <row r="28" ht="15.6" spans="1:32">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -4649,7 +4664,7 @@
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
     </row>
-    <row r="29" ht="16.5" spans="1:32">
+    <row r="29" ht="15.6" spans="1:32">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -4719,7 +4734,7 @@
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
     </row>
-    <row r="30" ht="16.5" spans="1:32">
+    <row r="30" ht="15.6" spans="1:32">
       <c r="A30" s="8" t="s">
         <v>123</v>
       </c>
@@ -4765,7 +4780,7 @@
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
     </row>
-    <row r="31" ht="16.5" spans="1:32">
+    <row r="31" ht="15.6" spans="1:32">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4799,7 +4814,7 @@
       <c r="AE31" s="33"/>
       <c r="AF31" s="33"/>
     </row>
-    <row r="32" ht="16.5" spans="1:32">
+    <row r="32" ht="15.6" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
@@ -4808,23 +4823,33 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
+      <c r="K32" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="O32" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
       <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
+      <c r="S32" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="T32" s="15"/>
       <c r="U32" s="15"/>
       <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
+      <c r="W32" s="15" t="s">
+        <v>129</v>
+      </c>
       <c r="X32" s="15"/>
       <c r="Y32" s="15"/>
       <c r="Z32" s="15"/>
@@ -4835,32 +4860,42 @@
       <c r="AE32" s="33"/>
       <c r="AF32" s="33"/>
     </row>
-    <row r="33" ht="16.5" spans="1:32">
+    <row r="33" ht="15.6" spans="1:32">
       <c r="A33" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="15"/>
+      <c r="G33" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
+      <c r="K33" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
       <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
+      <c r="O33" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
       <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
+      <c r="S33" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="T33" s="15"/>
       <c r="U33" s="15"/>
       <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
+      <c r="W33" s="15" t="s">
+        <v>134</v>
+      </c>
       <c r="X33" s="15"/>
       <c r="Y33" s="15"/>
       <c r="Z33" s="15"/>
@@ -4871,7 +4906,7 @@
       <c r="AE33" s="33"/>
       <c r="AF33" s="33"/>
     </row>
-    <row r="34" ht="16.5" spans="1:32">
+    <row r="34" ht="15.6" spans="1:32">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4905,7 +4940,7 @@
       <c r="AE34" s="33"/>
       <c r="AF34" s="33"/>
     </row>
-    <row r="35" ht="16.5" spans="1:32">
+    <row r="35" ht="15.6" spans="1:32">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4939,7 +4974,7 @@
       <c r="AE35" s="33"/>
       <c r="AF35" s="33"/>
     </row>
-    <row r="36" ht="16.5" spans="1:30">
+    <row r="36" ht="15.6" spans="1:30">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4971,7 +5006,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" ht="16.5" spans="1:30">
+    <row r="37" ht="15.6" spans="1:30">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>

--- a/script/测试用例 热 手算.xlsx
+++ b/script/测试用例 热 手算.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29868" windowHeight="13500" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数配置" sheetId="3" r:id="rId1"/>
@@ -1675,14 +1675,14 @@
       <selection activeCell="B20" sqref="B20:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="10.3796296296296" customWidth="1"/>
-    <col min="4" max="4" width="13.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="20.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="10.3818181818182" customWidth="1"/>
+    <col min="4" max="4" width="13.2181818181818" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:20">
+    <row r="1" ht="16.5" spans="1:20">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1708,7 +1708,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" ht="15.6" spans="1:20">
+    <row r="2" ht="16.5" spans="1:20">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" ht="15.6" spans="1:20">
+    <row r="3" ht="16.5" spans="1:20">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" ht="15.6" spans="1:20">
+    <row r="4" ht="16.5" spans="1:20">
       <c r="A4" s="34" t="s">
         <v>5</v>
       </c>
@@ -1786,7 +1786,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" ht="15.6" spans="1:20">
+    <row r="5" ht="16.5" spans="1:20">
       <c r="A5" s="36" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1814,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" ht="15.6" spans="1:20">
+    <row r="6" ht="16.5" spans="1:20">
       <c r="A6" s="37"/>
       <c r="B6" s="29" t="s">
         <v>10</v>
@@ -1842,7 +1842,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" ht="15.6" spans="1:20">
+    <row r="7" ht="16.5" spans="1:20">
       <c r="A7" s="38"/>
       <c r="B7" s="29" t="s">
         <v>13</v>
@@ -1868,7 +1868,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" ht="15.6" spans="1:20">
+    <row r="8" ht="16.5" spans="1:20">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" ht="15.6" spans="1:20">
+    <row r="9" ht="16.5" spans="1:20">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
@@ -1920,7 +1920,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" ht="15.6" spans="1:20">
+    <row r="10" ht="16.5" spans="1:20">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1948,7 +1948,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" ht="15.6" spans="1:20">
+    <row r="11" ht="16.5" spans="1:20">
       <c r="A11" s="8"/>
       <c r="B11" s="8" t="s">
         <v>20</v>
@@ -1976,7 +1976,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" ht="15.6" spans="1:20">
+    <row r="12" ht="16.5" spans="1:20">
       <c r="A12" s="8"/>
       <c r="B12" s="8" t="s">
         <v>22</v>
@@ -2004,7 +2004,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" ht="15.6" spans="1:20">
+    <row r="13" ht="16.5" spans="1:20">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>24</v>
@@ -2032,7 +2032,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" ht="15.6" spans="1:21">
+    <row r="14" ht="16.5" spans="1:21">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="39"/>
@@ -2055,7 +2055,7 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" ht="15.6" spans="1:21">
+    <row r="15" ht="16.5" spans="1:21">
       <c r="A15" s="8" t="s">
         <v>25</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="T15" s="40"/>
       <c r="U15" s="40"/>
     </row>
-    <row r="16" ht="15.6" spans="1:21">
+    <row r="16" ht="16.5" spans="1:21">
       <c r="A16" s="8" t="s">
         <v>27</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="T16" s="40"/>
       <c r="U16" s="40"/>
     </row>
-    <row r="17" ht="15.6" spans="1:21">
+    <row r="17" ht="16.5" spans="1:21">
       <c r="A17" s="8" t="s">
         <v>29</v>
       </c>
@@ -2136,7 +2136,7 @@
       <c r="T17" s="40"/>
       <c r="U17" s="40"/>
     </row>
-    <row r="18" ht="15.6" spans="1:21">
+    <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -2190,7 +2190,7 @@
       <c r="T19" s="48"/>
       <c r="U19" s="48"/>
     </row>
-    <row r="20" ht="15.6" spans="1:17">
+    <row r="20" ht="16.5" spans="1:17">
       <c r="A20" s="41" t="s">
         <v>35</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="P20" s="42"/>
       <c r="Q20" s="49"/>
     </row>
-    <row r="21" ht="15.6" spans="1:17">
+    <row r="21" ht="16.5" spans="1:17">
       <c r="A21" s="41" t="s">
         <v>37</v>
       </c>
@@ -2236,7 +2236,7 @@
       <c r="P21" s="42"/>
       <c r="Q21" s="42"/>
     </row>
-    <row r="22" ht="15.6" spans="1:17">
+    <row r="22" ht="16.5" spans="1:17">
       <c r="A22" s="41" t="s">
         <v>39</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="P22" s="42"/>
       <c r="Q22" s="49"/>
     </row>
-    <row r="23" ht="15.6" spans="1:17">
+    <row r="23" ht="16.5" spans="1:17">
       <c r="A23" s="41" t="s">
         <v>41</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="P23" s="42"/>
       <c r="Q23" s="49"/>
     </row>
-    <row r="24" ht="15.6" spans="1:17">
+    <row r="24" ht="16.5" spans="1:17">
       <c r="A24" s="41" t="s">
         <v>43</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="P24" s="42"/>
       <c r="Q24" s="49"/>
     </row>
-    <row r="25" ht="15.6" spans="1:17">
+    <row r="25" ht="16.5" spans="1:17">
       <c r="A25" s="43" t="s">
         <v>45</v>
       </c>
@@ -2506,31 +2506,31 @@
   <sheetPr/>
   <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y18" sqref="Y18:Y19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.8796296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.8818181818182" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.37962962962963" style="2" customWidth="1"/>
-    <col min="5" max="6" width="7.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7.75454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.38181818181818" style="2" customWidth="1"/>
+    <col min="5" max="6" width="7.75454545454545" style="2" customWidth="1"/>
     <col min="7" max="9" width="5.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="11" max="13" width="5.5" style="2" customWidth="1"/>
-    <col min="14" max="14" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="14" max="14" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="15" max="17" width="5.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="18" max="18" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="19" max="21" width="5.5" style="2" customWidth="1"/>
-    <col min="22" max="22" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="22" max="22" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="23" max="25" width="5.5" style="2" customWidth="1"/>
-    <col min="26" max="26" width="4.37962962962963" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.38181818181818" style="2" customWidth="1"/>
     <col min="27" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.2" spans="1:32">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>79</v>
       </c>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="AF1" s="30"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="32.4" spans="1:26">
+    <row r="2" s="1" customFormat="1" ht="33" spans="1:26">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2657,7 +2657,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="3" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A3" s="8">
         <v>0</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="AE4" s="32"/>
       <c r="AF4" s="32"/>
     </row>
-    <row r="5" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -2806,7 +2806,7 @@
       <c r="AE5" s="32"/>
       <c r="AF5" s="32"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="6" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="7" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="8" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="9" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="10" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A10" s="8">
         <v>7</v>
       </c>
@@ -3214,7 +3214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="11" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A11" s="8">
         <v>8</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A12" s="8">
         <v>9</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="13" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A13" s="8">
         <v>10</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="14" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A14" s="8">
         <v>11</v>
       </c>
@@ -3548,7 +3548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="15" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A15" s="8">
         <v>12</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="16" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A16" s="8">
         <v>13</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="17" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A17" s="8">
         <v>14</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="18" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A18" s="8">
         <v>15</v>
       </c>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="AF18" s="32"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="19" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A19" s="8">
         <v>16</v>
       </c>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="AF19" s="32"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="20" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A20" s="8">
         <v>17</v>
       </c>
@@ -4034,7 +4034,7 @@
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="21" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A21" s="8">
         <v>18</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
     </row>
-    <row r="22" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="22" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A22" s="8">
         <v>19</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="AF22" s="32"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="23" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A23" s="8">
         <v>20</v>
       </c>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="AF23" s="32"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="24" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15.6" spans="1:32">
+    <row r="25" s="1" customFormat="1" ht="16.5" spans="1:32">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="AF25" s="32"/>
     </row>
-    <row r="26" ht="15.6" spans="1:32">
+    <row r="26" ht="16.5" spans="1:32">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
     </row>
-    <row r="27" ht="15.6" spans="1:32">
+    <row r="27" ht="16.5" spans="1:32">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -4584,7 +4584,7 @@
       </c>
       <c r="AF27" s="32"/>
     </row>
-    <row r="28" ht="15.6" spans="1:32">
+    <row r="28" ht="16.5" spans="1:32">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
     </row>
-    <row r="29" ht="15.6" spans="1:32">
+    <row r="29" ht="16.5" spans="1:32">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -4734,7 +4734,7 @@
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
     </row>
-    <row r="30" ht="15.6" spans="1:32">
+    <row r="30" ht="16.5" spans="1:32">
       <c r="A30" s="8" t="s">
         <v>123</v>
       </c>
@@ -4780,7 +4780,7 @@
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
     </row>
-    <row r="31" ht="15.6" spans="1:32">
+    <row r="31" ht="16.5" spans="1:32">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -4814,7 +4814,7 @@
       <c r="AE31" s="33"/>
       <c r="AF31" s="33"/>
     </row>
-    <row r="32" ht="15.6" spans="1:32">
+    <row r="32" ht="16.5" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>128</v>
       </c>
@@ -4860,7 +4860,7 @@
       <c r="AE32" s="33"/>
       <c r="AF32" s="33"/>
     </row>
-    <row r="33" ht="15.6" spans="1:32">
+    <row r="33" ht="16.5" spans="1:32">
       <c r="A33" s="1" t="s">
         <v>132</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="AE33" s="33"/>
       <c r="AF33" s="33"/>
     </row>
-    <row r="34" ht="15.6" spans="1:32">
+    <row r="34" ht="16.5" spans="1:32">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -4940,7 +4940,7 @@
       <c r="AE34" s="33"/>
       <c r="AF34" s="33"/>
     </row>
-    <row r="35" ht="15.6" spans="1:32">
+    <row r="35" ht="16.5" spans="1:32">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -4974,7 +4974,7 @@
       <c r="AE35" s="33"/>
       <c r="AF35" s="33"/>
     </row>
-    <row r="36" ht="15.6" spans="1:30">
+    <row r="36" ht="16.5" spans="1:30">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5006,7 +5006,7 @@
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" ht="15.6" spans="1:30">
+    <row r="37" ht="16.5" spans="1:30">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
